--- a/standalone/test_files/dhn_data.xlsx
+++ b/standalone/test_files/dhn_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alisboa\PycharmProjects\emb3rs\module\standalone\test_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4448DE15-7970-45A6-8978-C9CBD69C9752}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE778D1A-2D5A-4391-A79D-CB97BD53D14E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8484" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8484" tabRatio="1000" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CF - Fuels Data" sheetId="15" r:id="rId1"/>
@@ -891,7 +891,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1018,6 +1018,9 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1236,8 +1239,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F527D639-18FF-46C0-B55E-BC0E69326F2A}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
@@ -1329,7 +1332,7 @@
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
@@ -2527,7 +2530,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
@@ -2785,7 +2788,7 @@
       <c r="C4" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="46" t="s">
         <v>161</v>
       </c>
       <c r="E4" s="4">
@@ -2833,7 +2836,7 @@
       <c r="C5" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="1" t="s">
         <v>162</v>
       </c>
       <c r="E5" s="9">
@@ -2881,7 +2884,7 @@
       <c r="C6" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="46" t="s">
         <v>161</v>
       </c>
       <c r="E6" s="4">
@@ -2929,7 +2932,7 @@
       <c r="C7" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="1" t="s">
         <v>161</v>
       </c>
       <c r="E7" s="9">
@@ -2971,7 +2974,7 @@
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
+      <c r="D8" s="46"/>
       <c r="E8"/>
       <c r="F8"/>
       <c r="G8"/>
@@ -3023,7 +3026,7 @@
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
+      <c r="D10" s="46"/>
       <c r="E10"/>
       <c r="F10"/>
       <c r="G10"/>
@@ -3075,7 +3078,7 @@
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
+      <c r="D12" s="46"/>
       <c r="E12"/>
       <c r="F12"/>
       <c r="G12"/>
@@ -3127,7 +3130,7 @@
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
+      <c r="D14" s="46"/>
       <c r="E14"/>
       <c r="F14"/>
       <c r="G14"/>
@@ -3179,7 +3182,7 @@
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
+      <c r="D16" s="46"/>
       <c r="E16"/>
       <c r="F16"/>
       <c r="G16"/>
@@ -3231,7 +3234,7 @@
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
+      <c r="D18" s="46"/>
       <c r="E18"/>
       <c r="F18"/>
       <c r="G18"/>
@@ -3283,7 +3286,7 @@
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
+      <c r="D20" s="46"/>
       <c r="E20"/>
       <c r="F20"/>
       <c r="G20"/>
@@ -3335,7 +3338,7 @@
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
+      <c r="D22" s="46"/>
       <c r="E22"/>
       <c r="F22"/>
       <c r="G22"/>
@@ -3387,7 +3390,7 @@
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
+      <c r="D24" s="46"/>
       <c r="E24"/>
       <c r="F24"/>
       <c r="G24"/>
@@ -3439,7 +3442,7 @@
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
+      <c r="D26" s="46"/>
       <c r="E26"/>
       <c r="F26"/>
       <c r="G26"/>
@@ -3491,7 +3494,7 @@
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
+      <c r="D28" s="46"/>
       <c r="E28"/>
       <c r="F28"/>
       <c r="G28"/>
@@ -3543,7 +3546,7 @@
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
+      <c r="D30" s="46"/>
       <c r="E30"/>
       <c r="F30"/>
       <c r="G30"/>
@@ -3595,7 +3598,7 @@
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
+      <c r="D32" s="46"/>
       <c r="E32"/>
       <c r="F32"/>
       <c r="G32"/>
@@ -3647,7 +3650,7 @@
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
+      <c r="D34" s="46"/>
       <c r="E34"/>
       <c r="F34"/>
       <c r="G34"/>
@@ -3699,7 +3702,7 @@
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
+      <c r="D36" s="46"/>
       <c r="E36"/>
       <c r="F36"/>
       <c r="G36"/>
@@ -3751,7 +3754,7 @@
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
+      <c r="D38" s="46"/>
       <c r="E38"/>
       <c r="F38"/>
       <c r="G38"/>
@@ -3803,7 +3806,7 @@
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
+      <c r="D40" s="46"/>
       <c r="E40"/>
       <c r="F40"/>
       <c r="G40"/>
@@ -3855,7 +3858,7 @@
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
+      <c r="D42" s="46"/>
       <c r="E42"/>
       <c r="F42"/>
       <c r="G42"/>
@@ -3907,7 +3910,7 @@
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
+      <c r="D44" s="46"/>
       <c r="E44"/>
       <c r="F44"/>
       <c r="G44"/>
@@ -3959,7 +3962,7 @@
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
+      <c r="D46" s="46"/>
       <c r="E46"/>
       <c r="F46"/>
       <c r="G46"/>
@@ -4011,7 +4014,7 @@
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
+      <c r="D48" s="46"/>
       <c r="E48"/>
       <c r="F48"/>
       <c r="G48"/>
@@ -4063,7 +4066,7 @@
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
+      <c r="D50" s="46"/>
       <c r="E50"/>
       <c r="F50"/>
       <c r="G50"/>
@@ -4115,7 +4118,7 @@
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
+      <c r="D52" s="46"/>
       <c r="E52"/>
       <c r="F52"/>
       <c r="G52"/>
@@ -4167,7 +4170,7 @@
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
+      <c r="D54" s="46"/>
       <c r="E54"/>
       <c r="F54"/>
       <c r="G54"/>
@@ -4219,7 +4222,7 @@
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
+      <c r="D56" s="46"/>
       <c r="E56"/>
       <c r="F56"/>
       <c r="G56"/>
@@ -4271,7 +4274,7 @@
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
+      <c r="D58" s="46"/>
       <c r="E58"/>
       <c r="F58"/>
       <c r="G58"/>
@@ -4323,7 +4326,7 @@
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
+      <c r="D60" s="46"/>
       <c r="E60"/>
       <c r="F60"/>
       <c r="G60"/>
@@ -4375,7 +4378,7 @@
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
+      <c r="D62" s="46"/>
       <c r="E62"/>
       <c r="F62"/>
       <c r="G62"/>
@@ -4427,7 +4430,7 @@
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
+      <c r="D64" s="46"/>
       <c r="E64"/>
       <c r="F64"/>
       <c r="G64"/>
@@ -4479,7 +4482,7 @@
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
-      <c r="D66" s="4"/>
+      <c r="D66" s="46"/>
       <c r="E66"/>
       <c r="F66"/>
       <c r="G66"/>
@@ -4531,7 +4534,7 @@
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
-      <c r="D68" s="4"/>
+      <c r="D68" s="46"/>
       <c r="E68"/>
       <c r="F68"/>
       <c r="G68"/>
@@ -4583,7 +4586,7 @@
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
-      <c r="D70" s="4"/>
+      <c r="D70" s="46"/>
       <c r="E70"/>
       <c r="F70"/>
       <c r="G70"/>
@@ -4635,7 +4638,7 @@
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
-      <c r="D72" s="4"/>
+      <c r="D72" s="46"/>
       <c r="E72"/>
       <c r="F72"/>
       <c r="G72"/>
@@ -4687,7 +4690,7 @@
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
-      <c r="D74" s="4"/>
+      <c r="D74" s="46"/>
       <c r="E74"/>
       <c r="F74"/>
       <c r="G74"/>
@@ -4739,7 +4742,7 @@
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
-      <c r="D76" s="4"/>
+      <c r="D76" s="46"/>
       <c r="E76"/>
       <c r="F76"/>
       <c r="G76"/>
@@ -4791,7 +4794,7 @@
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
-      <c r="D78" s="4"/>
+      <c r="D78" s="46"/>
       <c r="E78"/>
       <c r="F78"/>
       <c r="G78"/>
@@ -4892,7 +4895,7 @@
       <c r="X81" s="28"/>
     </row>
   </sheetData>
-  <dataValidations count="18">
+  <dataValidations count="17">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Data Input" prompt="Introduce Mass flowrate and Fluid cp, or Capacity.  Never all!" sqref="G1:I2 G4:I81" xr:uid="{22237265-78E8-46D5-8FAD-3E8828B77184}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Shutdown Periods" prompt="Periods of days during the year the stream/building is not available/occupied. (e.g. [], [[1,12]] or [[200,231],[330,360]]. Pay attention to the brackets when introducing periods." sqref="J4:J81" xr:uid="{A14866B2-0358-4966-8A5C-E691BAD064BA}"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Info" prompt="If available/occupied on Sunday (stream/building). Daily periods assumed on Sunday" sqref="M9:M81" xr:uid="{CCBDF834-27BC-40CA-B909-228E40F74CB9}">
@@ -4905,9 +4908,6 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Info" prompt="Stream supply/initial temperature" sqref="E1:E2 E4:E81" xr:uid="{6B0BF48D-7A96-4F06-9D37-18E47E4DC6AE}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Info" prompt="Stream target/final temperature" sqref="F1:F2 F4:F1048576" xr:uid="{644B08A0-D4A9-4B42-9DF5-4F24307C835C}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Info" prompt="Introduce a name for the stream" sqref="C4:C81" xr:uid="{84C346D7-6739-4268-80B2-8EDFED0C13F2}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Info" prompt="Choose the stream's fluid" sqref="D8:D21" xr:uid="{66CA7972-8D40-43BD-B27D-77132207A531}">
-      <formula1>"flue_gas; air; water; steam; thermal_oil; milk; malt; mashing_liquor; whey_concentrate; wort; cleaning_chemical; glycol; ethanol; R134a; R22; R404a; R717"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Info" prompt="If available/occupied on Saturday (stream/building). Daily periods assumed on Saturday" sqref="L9:L81" xr:uid="{A22A4E3F-8E75-411F-B8B7-29C8B826286B}">
       <formula1>"yes;no"</formula1>
     </dataValidation>
@@ -4915,7 +4915,7 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Info" prompt="Introduce list with a value for each month; e.g [234, 200,...]" sqref="W4:W80" xr:uid="{91D0603B-5655-444A-B41C-AE7603A7DC64}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Info" prompt="Introduce list with a value for each day; e.g [234, 200,...]" sqref="V4:V80" xr:uid="{BA07C8C0-90FB-4657-B604-7145D72AD1E8}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Info" prompt="Introduce list with a value for each hour; e.g [234, 200,...]" sqref="U4:U80" xr:uid="{2571D6E7-8300-4F35-9EFF-31B36FF7DDC0}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Info" prompt="Choose the stream's fluid" sqref="D4:D7 D22:D81" xr:uid="{EF6F79C7-D3A8-47D0-AA9C-337581480987}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Info" prompt="Choose the stream's fluid" sqref="D5:D81 D4" xr:uid="{EF6F79C7-D3A8-47D0-AA9C-337581480987}">
       <formula1>"flue_gas, air, water, steam, thermal_oil, milk, malt, mashing_liquor, whey_concentrate, wort, cleaning_chemical, glycol, ethanol, R134a, R22, R404a, R717"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Info" prompt="If available/occupied on Saturday (stream/building). Daily periods assumed on Saturday" sqref="L4:M8" xr:uid="{9A8DD1B2-B8C9-4E77-9BAF-3AD7C48C0A35}">
@@ -5496,7 +5496,7 @@
   <dimension ref="A1:Z81"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
@@ -8382,8 +8382,8 @@
   </sheetPr>
   <dimension ref="A1:AD35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
@@ -9775,26 +9775,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="84af718c-fc6b-4714-bc8b-cb461e2b947f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="bb9c2025-ac97-4ad2-a2b6-4c428eff93e3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100F13EBE9D6F8C244F8B96B45BA7150D51" ma:contentTypeVersion="15" ma:contentTypeDescription="Criar um novo documento." ma:contentTypeScope="" ma:versionID="d6183bce8c7e1eaee2eb0ef0298792da">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="84af718c-fc6b-4714-bc8b-cb461e2b947f" xmlns:ns3="bb9c2025-ac97-4ad2-a2b6-4c428eff93e3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b70513c8051bb4adb498efbbfaee921" ns2:_="" ns3:_="">
     <xsd:import namespace="84af718c-fc6b-4714-bc8b-cb461e2b947f"/>
@@ -10031,32 +10011,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{48A124CE-25C7-4252-A76D-CEDFC75230D6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="84af718c-fc6b-4714-bc8b-cb461e2b947f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="bb9c2025-ac97-4ad2-a2b6-4c428eff93e3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF50CD6D-3703-4A01-B1CA-F0F7464132C0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="84af718c-fc6b-4714-bc8b-cb461e2b947f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="bb9c2025-ac97-4ad2-a2b6-4c428eff93e3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17F9E506-5D40-4391-B8AC-BF311571676A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10073,4 +10048,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF50CD6D-3703-4A01-B1CA-F0F7464132C0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{48A124CE-25C7-4252-A76D-CEDFC75230D6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="84af718c-fc6b-4714-bc8b-cb461e2b947f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="bb9c2025-ac97-4ad2-a2b6-4c428eff93e3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>